--- a/biology/Botanique/Rorippe_amphibie/Rorippe_amphibie.xlsx
+++ b/biology/Botanique/Rorippe_amphibie/Rorippe_amphibie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rorippa amphibia, le Rorippe amphibie ou Cresson amphibie, est une espèce de plantes herbacées de la famille des Brassicacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sisymbrium amphibium L. (basionyme)</t>
         </is>
@@ -541,9 +555,11 @@
           <t>Liste des variétés et formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (18 juin 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (18 juin 2013) (Attention liste brute contenant possiblement des synonymes) :
 Rorippa amphibia var. natans Kotov
 Rorippa amphibia var. riparia Kotov
 Rorippa amphibia f. amphibia
@@ -575,7 +591,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste des espèces végétales non cultivées protégées sur l’ensemble du territoire algérien
 Liste rouge des plantes de Suisse</t>
